--- a/Determinants/Determinant Output/Analysis.xlsx
+++ b/Determinants/Determinant Output/Analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luker\OneDrive - University of Tulsa\Desktop\Determinants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luker\OneDrive - University of Tulsa\Desktop\Determinant Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34729F54-88F8-4974-BEE8-D34555307420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2C9F8B-132A-4E07-BC41-231FB0228FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,8 +181,108 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="13"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>16 Elements</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.1736289858800002E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5904800966379999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9825669005510001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.012767992914E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8486329615120001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2497440222650801E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B938-4024-BD62-DF19D4EC1512}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>32 Elements</c:v>
           </c:tx>
@@ -212,7 +312,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -273,7 +373,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>64 Elements</c:v>
           </c:tx>
@@ -303,7 +403,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -364,7 +464,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>128 Elements</c:v>
           </c:tx>
@@ -394,7 +494,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -455,7 +555,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>256 Elements</c:v>
           </c:tx>
@@ -485,7 +585,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -546,7 +646,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:v>496 Elements</c:v>
           </c:tx>
@@ -576,7 +676,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -637,7 +737,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:v>512 Elements</c:v>
           </c:tx>
@@ -667,7 +767,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -728,7 +828,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:v>1000 Elements</c:v>
           </c:tx>
@@ -764,7 +864,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -825,7 +925,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="8"/>
           <c:tx>
             <c:v>1024 Elements</c:v>
           </c:tx>
@@ -861,7 +961,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -922,7 +1022,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="9"/>
           <c:tx>
             <c:v>2000 Elements</c:v>
           </c:tx>
@@ -958,7 +1058,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1019,7 +1119,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
-          <c:order val="9"/>
+          <c:order val="10"/>
           <c:tx>
             <c:v>2048 Elements</c:v>
           </c:tx>
@@ -1058,7 +1158,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1119,7 +1219,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="10"/>
+          <c:order val="11"/>
           <c:tx>
             <c:v>3000 Elements</c:v>
           </c:tx>
@@ -1155,7 +1255,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1216,7 +1316,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
-          <c:order val="11"/>
+          <c:order val="12"/>
           <c:tx>
             <c:v>4000 Elements</c:v>
           </c:tx>
@@ -1252,7 +1352,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1313,7 +1413,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
-          <c:order val="12"/>
+          <c:order val="13"/>
           <c:tx>
             <c:v>4096 Elements</c:v>
           </c:tx>
@@ -1349,7 +1449,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1809,8 +1909,89 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="13"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>16 Elements</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Elements+Sheet1!$B$14:$B$19</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26241315403457927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21051642619071539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13853137698277243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6078468281882356E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8551572732607687E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2022-4C04-AA5D-95B682848119}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>32 Elements</c:v>
           </c:tx>
@@ -1840,7 +2021,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1901,7 +2082,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>64 Elements</c:v>
           </c:tx>
@@ -1931,7 +2112,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1992,7 +2173,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>128 Elements</c:v>
           </c:tx>
@@ -2022,7 +2203,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2083,7 +2264,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>256 Elements</c:v>
           </c:tx>
@@ -2113,7 +2294,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2174,7 +2355,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:v>496 Elements</c:v>
           </c:tx>
@@ -2204,7 +2385,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2265,7 +2446,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:v>512 Elements</c:v>
           </c:tx>
@@ -2295,7 +2476,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2356,7 +2537,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:v>1000 Elements</c:v>
           </c:tx>
@@ -2392,7 +2573,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2453,7 +2634,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="8"/>
           <c:tx>
             <c:v>1024 Elements</c:v>
           </c:tx>
@@ -2489,7 +2670,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2550,7 +2731,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="9"/>
           <c:tx>
             <c:v>2000 Elements</c:v>
           </c:tx>
@@ -2586,7 +2767,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2647,7 +2828,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
-          <c:order val="9"/>
+          <c:order val="10"/>
           <c:tx>
             <c:v>2048 Elements</c:v>
           </c:tx>
@@ -2686,7 +2867,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$B$19</c:f>
+              <c:f>Sheet1!$A$14:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2747,7 +2928,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="10"/>
+          <c:order val="11"/>
           <c:tx>
             <c:v>3000 Elements</c:v>
           </c:tx>
@@ -2783,7 +2964,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2844,7 +3025,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
-          <c:order val="11"/>
+          <c:order val="12"/>
           <c:tx>
             <c:v>4000 Elements</c:v>
           </c:tx>
@@ -2880,7 +3061,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2941,7 +3122,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
-          <c:order val="12"/>
+          <c:order val="13"/>
           <c:tx>
             <c:v>4096 Elements</c:v>
           </c:tx>
@@ -2977,7 +3158,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3429,8 +3610,108 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="13"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>16 Elements</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$24:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6400822127161204E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3157276636919712E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6582110614232769E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3799042676176472E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1594732957879804E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CC5F-4D35-98E8-3656C86BDF09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>32 Elements</c:v>
           </c:tx>
@@ -3460,7 +3741,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3521,7 +3802,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>64 Elements</c:v>
           </c:tx>
@@ -3551,7 +3832,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3612,7 +3893,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>128 Elements</c:v>
           </c:tx>
@@ -3642,7 +3923,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3703,7 +3984,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>256 Elements</c:v>
           </c:tx>
@@ -3733,7 +4014,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3794,7 +4075,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:v>496 Elements</c:v>
           </c:tx>
@@ -3824,7 +4105,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3885,7 +4166,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:v>512 Elements</c:v>
           </c:tx>
@@ -3915,7 +4196,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3976,7 +4257,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:v>1000 Elements</c:v>
           </c:tx>
@@ -4012,7 +4293,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4073,7 +4354,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="8"/>
           <c:tx>
             <c:v>1024 Elements</c:v>
           </c:tx>
@@ -4109,7 +4390,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4170,7 +4451,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="9"/>
           <c:tx>
             <c:v>2000 Elements</c:v>
           </c:tx>
@@ -4206,7 +4487,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4266,8 +4547,108 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="12"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>2048 Elements</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$24:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$24:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.8828125E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0091925595826405E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0020222122432495E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9434700773927304E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.187671258535761E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2499017651352905E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8C6A-4540-A7F7-4BDEF909FEBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:order val="11"/>
           <c:tx>
             <c:v>3000 Elements</c:v>
           </c:tx>
@@ -4303,7 +4684,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4364,7 +4745,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
-          <c:order val="10"/>
+          <c:order val="12"/>
           <c:tx>
             <c:v>4000 Elements</c:v>
           </c:tx>
@@ -4400,7 +4781,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4461,7 +4842,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
-          <c:order val="11"/>
+          <c:order val="13"/>
           <c:tx>
             <c:v>4096 Elements</c:v>
           </c:tx>
@@ -4497,7 +4878,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6546,15 +6927,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>291464</xdr:colOff>
+      <xdr:colOff>5714</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>563879</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6582,15 +6963,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>215265</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>558165</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6619,16 +7000,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>203835</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>97155</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6921,15 +7302,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O29"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="11.89453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="9.578125" customWidth="1"/>
     <col min="3" max="4" width="9.7890625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9.68359375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.05078125" bestFit="1" customWidth="1"/>
@@ -6937,19 +7319,22 @@
     <col min="11" max="15" width="10.05078125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
         <v>0</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
       </c>
       <c r="C3">
         <v>32</v>
@@ -6995,9 +7380,12 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
         <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4.1736289858800002E-5</v>
       </c>
       <c r="C4" s="1">
         <v>6.7172106355400005E-5</v>
@@ -7039,10 +7427,13 @@
         <v>63.918236943893099</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5">
-        <f>2*B4</f>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <f>2*A4</f>
         <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.5904800966379999E-4</v>
       </c>
       <c r="C5" s="1">
         <v>2.3098709061739999E-4</v>
@@ -7084,10 +7475,13 @@
         <v>36.899950522929402</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6">
-        <f t="shared" ref="B6:B8" si="1">2*B5</f>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <f t="shared" ref="A6:A8" si="1">2*A5</f>
         <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.9825669005510001E-4</v>
       </c>
       <c r="C6" s="1">
         <v>2.8433231636880001E-4</v>
@@ -7129,11 +7523,14 @@
         <v>27.842183665838</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
+      <c r="B7" s="1">
+        <v>3.012767992914E-4</v>
+      </c>
       <c r="C7" s="1">
         <v>3.5362178459759998E-4</v>
       </c>
@@ -7174,11 +7571,14 @@
         <v>25.5887725781649</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
+      <c r="B8" s="1">
+        <v>4.8486329615120001E-4</v>
+      </c>
       <c r="C8" s="1">
         <v>6.3955783843989999E-4</v>
       </c>
@@ -7219,10 +7619,13 @@
         <v>25.757836904842399</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9">
-        <f>2*B8</f>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <f>2*A8</f>
         <v>32</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.2497440222650801E-2</v>
       </c>
       <c r="C9" s="1">
         <v>2.2685195319354499E-2</v>
@@ -7264,7 +7667,7 @@
         <v>27.082791499793501</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -7278,19 +7681,22 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
         <v>0</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
       </c>
       <c r="C13">
         <v>32</v>
@@ -7336,8 +7742,12 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <f>0.0000417362898588/B4</f>
         <v>1</v>
       </c>
       <c r="C14" s="1">
@@ -7393,10 +7803,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15">
-        <f>2*B14</f>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <f>2*A14</f>
         <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <f>0.0000417362898588/B5</f>
+        <v>0.26241315403457927</v>
       </c>
       <c r="C15" s="1">
         <f>0.0000671721063554/C5</f>
@@ -7451,10 +7865,14 @@
         <v>1.7322038658066683</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16">
-        <f t="shared" ref="B16:B18" si="3">2*B15</f>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <f t="shared" ref="A16:A18" si="3">2*A15</f>
         <v>4</v>
+      </c>
+      <c r="B16" s="1">
+        <f>0.0000417362898588/B6</f>
+        <v>0.21051642619071539</v>
       </c>
       <c r="C16" s="1">
         <f>0.0000671721063554/C6</f>
@@ -7509,10 +7927,14 @@
         <v>2.2957336145411595</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
         <f t="shared" si="3"/>
         <v>8</v>
+      </c>
+      <c r="B17" s="1">
+        <f>0.0000417362898588/B7</f>
+        <v>0.13853137698277243</v>
       </c>
       <c r="C17" s="1">
         <f>0.0000671721063554/C7</f>
@@ -7567,10 +7989,14 @@
         <v>2.4979016382534516</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
         <f t="shared" si="3"/>
         <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <f>0.0000417362898588/B8</f>
+        <v>8.6078468281882356E-2</v>
       </c>
       <c r="C18" s="1">
         <f>0.0000671721063554/C8</f>
@@ -7625,10 +8051,14 @@
         <v>2.4815063927932806</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19">
-        <f>2*B18</f>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <f>2*A18</f>
         <v>32</v>
+      </c>
+      <c r="B19" s="1">
+        <f>0.0000417362898588/B9</f>
+        <v>1.8551572732607687E-3</v>
       </c>
       <c r="C19" s="1">
         <f>0.0000671721063554/C9</f>
@@ -7683,19 +8113,22 @@
         <v>2.3601051961124635</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
         <v>0</v>
+      </c>
+      <c r="B23">
+        <v>16</v>
       </c>
       <c r="C23">
         <v>32</v>
@@ -7741,9 +8174,13 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
         <v>1</v>
+      </c>
+      <c r="B24" s="1">
+        <f>B14/16</f>
+        <v>6.25E-2</v>
       </c>
       <c r="C24" s="1">
         <f>C14/32</f>
@@ -7798,293 +8235,313 @@
         <v>2.44140625E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25">
-        <f>2*B24</f>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <f>2*A24</f>
         <v>2</v>
       </c>
+      <c r="B25" s="1">
+        <f>B15/16</f>
+        <v>1.6400822127161204E-2</v>
+      </c>
       <c r="C25" s="1">
-        <f t="shared" ref="C25:C29" si="5">C15/32</f>
+        <f>C15/32</f>
         <v>9.0876434609204314E-3</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:D29" si="6">D15/64</f>
+        <f>D15/64</f>
         <v>1.0468312573006205E-2</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" ref="E25:E29" si="7">E15/128</f>
+        <f>E15/128</f>
         <v>9.3458496547897708E-3</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" ref="F25:F29" si="8">F15/256</f>
+        <f>F15/256</f>
         <v>6.4069417648868025E-3</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" ref="G25:G29" si="9">G15/496</f>
+        <f>G15/496</f>
         <v>3.6757035582804386E-3</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ref="H25:H29" si="10">H15/512</f>
+        <f>H15/512</f>
         <v>3.5344442974803002E-3</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" ref="I25:I29" si="11">I15/1000</f>
+        <f>I15/1000</f>
         <v>1.8870166656218415E-3</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" ref="J25:J29" si="12">J15/1024</f>
+        <f>J15/1024</f>
         <v>1.8281898857758759E-3</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" ref="K25:K29" si="13">K15/2000</f>
+        <f>K15/2000</f>
         <v>1.0345060435471387E-3</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" ref="L25:L29" si="14">L15/2048</f>
+        <f>L15/2048</f>
         <v>1.0091925595826405E-3</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" ref="M25:M29" si="15">M15/3000</f>
+        <f>M15/3000</f>
         <v>6.1193613256409663E-4</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" ref="N25:N29" si="16">N15/4000</f>
+        <f>N15/4000</f>
         <v>4.3389009514032642E-4</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" ref="O25:O29" si="17">O15/4096</f>
+        <f>O15/4096</f>
         <v>4.2290133442545613E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26">
-        <f t="shared" ref="B26:B28" si="18">2*B25</f>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <f t="shared" ref="A26:A28" si="5">2*A25</f>
         <v>4</v>
       </c>
+      <c r="B26" s="1">
+        <f>B16/16</f>
+        <v>1.3157276636919712E-2</v>
+      </c>
       <c r="C26" s="1">
+        <f>C16/32</f>
+        <v>7.3826582585270603E-3</v>
+      </c>
+      <c r="D26" s="1">
+        <f>D16/64</f>
+        <v>1.0087648579330751E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <f>E16/128</f>
+        <v>1.0979217865514498E-2</v>
+      </c>
+      <c r="F26" s="1">
+        <f>F16/256</f>
+        <v>1.1007846862568177E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <f>G16/496</f>
+        <v>6.9409218001534826E-3</v>
+      </c>
+      <c r="H26" s="1">
+        <f>H16/512</f>
+        <v>6.6868638406570088E-3</v>
+      </c>
+      <c r="I26" s="1">
+        <f>I16/1000</f>
+        <v>3.6919598694333039E-3</v>
+      </c>
+      <c r="J26" s="1">
+        <f>J16/1024</f>
+        <v>3.5692559304511436E-3</v>
+      </c>
+      <c r="K26" s="1">
+        <f>K16/2000</f>
+        <v>1.9985266152408501E-3</v>
+      </c>
+      <c r="L26" s="1">
+        <f>L16/2048</f>
+        <v>2.0020222122432495E-3</v>
+      </c>
+      <c r="M26" s="1">
+        <f>M16/3000</f>
+        <v>9.2227990898511951E-4</v>
+      </c>
+      <c r="N26" s="1">
+        <f>N16/4000</f>
+        <v>5.6271894378572614E-4</v>
+      </c>
+      <c r="O26" s="1">
+        <f>O16/4096</f>
+        <v>5.6048183948758778E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
         <f t="shared" si="5"/>
-        <v>7.3826582585270603E-3</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0087648579330751E-2</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="7"/>
-        <v>1.0979217865514498E-2</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1007846862568177E-2</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="9"/>
-        <v>6.9409218001534826E-3</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" si="10"/>
-        <v>6.6868638406570088E-3</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="11"/>
-        <v>3.6919598694333039E-3</v>
-      </c>
-      <c r="J26" s="1">
-        <f t="shared" si="12"/>
-        <v>3.5692559304511436E-3</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="13"/>
-        <v>1.9985266152408501E-3</v>
-      </c>
-      <c r="L26" s="1">
-        <f t="shared" si="14"/>
-        <v>2.0020222122432495E-3</v>
-      </c>
-      <c r="M26" s="1">
-        <f t="shared" si="15"/>
-        <v>9.2227990898511951E-4</v>
-      </c>
-      <c r="N26" s="1">
-        <f t="shared" si="16"/>
-        <v>5.6271894378572614E-4</v>
-      </c>
-      <c r="O26" s="1">
-        <f t="shared" si="17"/>
-        <v>5.6048183948758778E-4</v>
+        <v>8</v>
+      </c>
+      <c r="B27" s="1">
+        <f>B17/16</f>
+        <v>8.6582110614232769E-3</v>
+      </c>
+      <c r="C27" s="1">
+        <f>C17/32</f>
+        <v>5.9360831686173692E-3</v>
+      </c>
+      <c r="D27" s="1">
+        <f>D17/64</f>
+        <v>8.6325064570513359E-3</v>
+      </c>
+      <c r="E27" s="1">
+        <f>E17/128</f>
+        <v>1.0897187970785635E-2</v>
+      </c>
+      <c r="F27" s="1">
+        <f>F17/256</f>
+        <v>1.4089732244892059E-2</v>
+      </c>
+      <c r="G27" s="1">
+        <f>G17/496</f>
+        <v>1.225227586316432E-2</v>
+      </c>
+      <c r="H27" s="1">
+        <f>H17/512</f>
+        <v>1.1848310189339727E-2</v>
+      </c>
+      <c r="I27" s="1">
+        <f>I17/1000</f>
+        <v>7.0088204263646344E-3</v>
+      </c>
+      <c r="J27" s="1">
+        <f>J17/1024</f>
+        <v>7.0547568684244128E-3</v>
+      </c>
+      <c r="K27" s="1">
+        <f>K17/2000</f>
+        <v>3.9203594629951362E-3</v>
+      </c>
+      <c r="L27" s="1">
+        <f>L17/2048</f>
+        <v>3.9434700773927304E-3</v>
+      </c>
+      <c r="M27" s="1">
+        <f>M17/3000</f>
+        <v>1.1347198945509185E-3</v>
+      </c>
+      <c r="N27" s="1">
+        <f>N17/4000</f>
+        <v>6.3109984147093274E-4</v>
+      </c>
+      <c r="O27" s="1">
+        <f>O17/4096</f>
+        <v>6.0983926715172158E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27">
-        <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="C27" s="1">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
         <f t="shared" si="5"/>
-        <v>5.9360831686173692E-3</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="6"/>
-        <v>8.6325064570513359E-3</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="7"/>
-        <v>1.0897187970785635E-2</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" si="8"/>
-        <v>1.4089732244892059E-2</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="9"/>
-        <v>1.225227586316432E-2</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="10"/>
-        <v>1.1848310189339727E-2</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" si="11"/>
-        <v>7.0088204263646344E-3</v>
-      </c>
-      <c r="J27" s="1">
-        <f t="shared" si="12"/>
-        <v>7.0547568684244128E-3</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="13"/>
-        <v>3.9203594629951362E-3</v>
-      </c>
-      <c r="L27" s="1">
-        <f t="shared" si="14"/>
-        <v>3.9434700773927304E-3</v>
-      </c>
-      <c r="M27" s="1">
-        <f t="shared" si="15"/>
-        <v>1.1347198945509185E-3</v>
-      </c>
-      <c r="N27" s="1">
-        <f t="shared" si="16"/>
-        <v>6.3109984147093274E-4</v>
-      </c>
-      <c r="O27" s="1">
-        <f t="shared" si="17"/>
-        <v>6.0983926715172158E-4</v>
+        <v>16</v>
+      </c>
+      <c r="B28" s="1">
+        <f>B18/16</f>
+        <v>5.3799042676176472E-3</v>
+      </c>
+      <c r="C28" s="1">
+        <f>C18/32</f>
+        <v>3.2821555728669376E-3</v>
+      </c>
+      <c r="D28" s="1">
+        <f>D18/64</f>
+        <v>5.3773989829802174E-3</v>
+      </c>
+      <c r="E28" s="1">
+        <f>E18/128</f>
+        <v>8.4971372895035931E-3</v>
+      </c>
+      <c r="F28" s="1">
+        <f>F18/256</f>
+        <v>1.4960521749234236E-2</v>
+      </c>
+      <c r="G28" s="1">
+        <f>G18/496</f>
+        <v>1.706481054233297E-2</v>
+      </c>
+      <c r="H28" s="1">
+        <f>H18/512</f>
+        <v>1.7170694019504117E-2</v>
+      </c>
+      <c r="I28" s="1">
+        <f>I18/1000</f>
+        <v>1.2010899796281655E-2</v>
+      </c>
+      <c r="J28" s="1">
+        <f>J18/1024</f>
+        <v>1.1682265326241673E-2</v>
+      </c>
+      <c r="K28" s="1">
+        <f>K18/2000</f>
+        <v>7.330059565806183E-3</v>
+      </c>
+      <c r="L28" s="1">
+        <f>L18/2048</f>
+        <v>7.187671258535761E-3</v>
+      </c>
+      <c r="M28" s="1">
+        <f>M18/3000</f>
+        <v>1.242011420956623E-3</v>
+      </c>
+      <c r="N28" s="1">
+        <f>N18/4000</f>
+        <v>6.2716096367037026E-4</v>
+      </c>
+      <c r="O28" s="1">
+        <f>O18/4096</f>
+        <v>6.0583652167804701E-4</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28">
-        <f t="shared" si="18"/>
-        <v>16</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" si="5"/>
-        <v>3.2821555728669376E-3</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="6"/>
-        <v>5.3773989829802174E-3</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="7"/>
-        <v>8.4971372895035931E-3</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" si="8"/>
-        <v>1.4960521749234236E-2</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="9"/>
-        <v>1.706481054233297E-2</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="10"/>
-        <v>1.7170694019504117E-2</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" si="11"/>
-        <v>1.2010899796281655E-2</v>
-      </c>
-      <c r="J28" s="1">
-        <f t="shared" si="12"/>
-        <v>1.1682265326241673E-2</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="13"/>
-        <v>7.330059565806183E-3</v>
-      </c>
-      <c r="L28" s="1">
-        <f t="shared" si="14"/>
-        <v>7.187671258535761E-3</v>
-      </c>
-      <c r="M28" s="1">
-        <f t="shared" si="15"/>
-        <v>1.242011420956623E-3</v>
-      </c>
-      <c r="N28" s="1">
-        <f t="shared" si="16"/>
-        <v>6.2716096367037026E-4</v>
-      </c>
-      <c r="O28" s="1">
-        <f t="shared" si="17"/>
-        <v>6.0583652167804701E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29">
-        <f>2*B28</f>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <f>2*A28</f>
         <v>32</v>
       </c>
+      <c r="B29" s="1">
+        <f>B19/16</f>
+        <v>1.1594732957879804E-4</v>
+      </c>
       <c r="C29" s="1">
-        <f t="shared" si="5"/>
+        <f>C19/32</f>
         <v>9.2532962315529239E-5</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="6"/>
+        <f>D19/64</f>
         <v>2.504671491789494E-4</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="7"/>
+        <f>E19/128</f>
         <v>2.6137732003106093E-5</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="8"/>
+        <f>F19/256</f>
         <v>5.780007830334531E-5</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="9"/>
+        <f>G19/496</f>
         <v>7.989351437784474E-3</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="10"/>
+        <f>H19/512</f>
         <v>1.0670105637719705E-4</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="11"/>
+        <f>I19/1000</f>
         <v>7.6089291280467917E-4</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="12"/>
+        <f>J19/1024</f>
         <v>7.2158588381424664E-3</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="13"/>
+        <f>K19/2000</f>
         <v>5.4909137789508841E-4</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="14"/>
+        <f>L19/2048</f>
         <v>1.2499017651352905E-3</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="15"/>
+        <f>M19/3000</f>
         <v>1.1694891252510076E-3</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="16"/>
+        <f>N19/4000</f>
         <v>6.1991221463834217E-4</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="17"/>
+        <f>O19/4096</f>
         <v>5.7619755764464441E-4</v>
       </c>
     </row>
